--- a/bank statement generator/bank_statements/statement_89.xlsx
+++ b/bank statement generator/bank_statements/statement_89.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 06.03.2025</t>
+          <t>KONTOSTAND AM 22.04.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,96 +759,112 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>10.03.</t>
+          <t>26.04.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>11.03.</t>
+          <t>27.04.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./10.03 ALDI SUED RO</t>
+          <t>ZALANDO MKTPLC EU WMKYRX</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>90,08-</t>
+          <t>140,19-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>14.03.</t>
+          <t>28.04.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>15.03.</t>
+          <t>29.04.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL SKAKHK</t>
+          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>43,93-</t>
+          <t>42,30-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>15.03.</t>
+          <t>30.04.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>16.03.</t>
+          <t>01.05.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 38523781</t>
+          <t>KARTENZ./30.04 LIDL RO</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>86,89-</t>
+          <t>45,26-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>18.03.</t>
+          <t>02.05.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>19.03.</t>
+          <t>03.05.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Spremberg</t>
+          <t>KARTENZ./02.05 EDEKA RO</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>26,17-</t>
+          <t>23,18-</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="12" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>06.05.</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>07.05.</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>RECHNUNG VODAFONE GMBH 88517325</t>
+        </is>
+      </c>
+      <c r="E10" s="17" t="inlineStr">
+        <is>
+          <t>38,16-</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="n"/>
@@ -861,12 +877,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 22.03.2025</t>
+          <t>KONTOSTAND AM 11.05.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>247,07-</t>
+          <t>289,09-</t>
         </is>
       </c>
     </row>
@@ -874,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 01.04.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 19.05.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
